--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joematthews/Desktop/PreReg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CE910-9423-104D-A67F-2A18964BCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7E94E-BF07-DB4C-BE3C-CFF2B0B5B7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working App back end " sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>MAS2906 Computational Probability and Statistics</t>
   </si>
   <si>
-    <t>MAS2903;MAS3918;MAS3902;MAS3903;MAS3905;MAS3917;MAS3906;mas2906</t>
-  </si>
-  <si>
     <t>MAS2901;MAS2902</t>
   </si>
   <si>
@@ -1139,6 +1136,9 @@
   </si>
   <si>
     <t>HasCoreq</t>
+  </si>
+  <si>
+    <t>MAS2903;MAS3918;MAS3902;MAS3903;MAS3905;MAS3917;MAS3906;MAS2906</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1701,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2014,10 +2035,10 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2070,13 +2091,13 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2161,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
@@ -2442,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2486,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2530,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2574,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2592,45 +2613,45 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
         <v>53</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
       <c r="H14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -2653,10 +2674,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2680,16 +2701,16 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>338</v>
+      </c>
+      <c r="M15" t="s">
         <v>61</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>339</v>
-      </c>
-      <c r="M15" t="s">
-        <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
@@ -2697,10 +2718,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2724,16 +2745,16 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
         <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>
@@ -2741,10 +2762,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2777,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" t="s">
         <v>37</v>
@@ -2785,10 +2806,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2812,27 +2833,27 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>339</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" t="s">
         <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>340</v>
-      </c>
-      <c r="M18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2841,10 +2862,10 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -2873,10 +2894,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2909,18 +2930,18 @@
         <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2950,21 +2971,21 @@
         <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2997,7 +3018,7 @@
         <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
         <v>37</v>
@@ -3005,10 +3026,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3032,16 +3053,16 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
         <v>85</v>
-      </c>
-      <c r="K23" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" t="s">
-        <v>86</v>
       </c>
       <c r="N23" t="s">
         <v>37</v>
@@ -3049,10 +3070,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3076,16 +3097,16 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" t="s">
         <v>37</v>
@@ -3093,10 +3114,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3120,10 +3141,10 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
@@ -3132,15 +3153,15 @@
         <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3164,16 +3185,16 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N26" t="s">
         <v>37</v>
@@ -3181,10 +3202,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
         <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3214,21 +3235,21 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
         <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3261,7 +3282,7 @@
         <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N28" t="s">
         <v>37</v>
@@ -3269,10 +3290,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3302,21 +3323,21 @@
         <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3340,16 +3361,16 @@
         <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s">
         <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" t="s">
         <v>37</v>
@@ -3357,10 +3378,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3393,7 +3414,7 @@
         <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
         <v>37</v>
@@ -3401,16 +3422,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3428,16 +3449,16 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
         <v>110</v>
-      </c>
-      <c r="K32" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" t="s">
-        <v>111</v>
       </c>
       <c r="N32" t="s">
         <v>37</v>
@@ -3445,16 +3466,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
         <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -3466,22 +3487,22 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
         <v>115</v>
       </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
         <v>116</v>
-      </c>
-      <c r="K33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" t="s">
-        <v>117</v>
       </c>
       <c r="N33" t="s">
         <v>37</v>
@@ -3489,16 +3510,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
         <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -3510,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -3533,16 +3554,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
         <v>121</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -3566,10 +3587,10 @@
         <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N35" t="s">
         <v>37</v>
@@ -3577,16 +3598,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
         <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3598,7 +3619,7 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -3613,24 +3634,24 @@
         <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3654,27 +3675,27 @@
         <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -3701,7 +3722,7 @@
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s">
         <v>37</v>
@@ -3709,16 +3730,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
         <v>129</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3742,10 +3763,10 @@
         <v>37</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s">
         <v>37</v>
@@ -3753,16 +3774,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -3771,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -3797,16 +3818,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
         <v>134</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -3815,10 +3836,10 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -3841,10 +3862,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
         <v>136</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -3877,7 +3898,7 @@
         <v>37</v>
       </c>
       <c r="M42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N42" t="s">
         <v>37</v>
@@ -3885,10 +3906,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
         <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3921,7 +3942,7 @@
         <v>37</v>
       </c>
       <c r="M43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N43" t="s">
         <v>37</v>
@@ -3929,10 +3950,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
         <v>140</v>
-      </c>
-      <c r="B44" t="s">
-        <v>141</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3965,7 +3986,7 @@
         <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N44" t="s">
         <v>37</v>
@@ -3973,10 +3994,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
         <v>142</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4009,7 +4030,7 @@
         <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N45" t="s">
         <v>37</v>
@@ -4017,10 +4038,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
         <v>144</v>
-      </c>
-      <c r="B46" t="s">
-        <v>145</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4053,7 +4074,7 @@
         <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s">
         <v>37</v>
@@ -4061,10 +4082,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
         <v>146</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4097,7 +4118,7 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N47" t="s">
         <v>37</v>
@@ -4105,10 +4126,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" t="s">
-        <v>149</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -4141,7 +4162,7 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N48" t="s">
         <v>37</v>
@@ -4149,10 +4170,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
         <v>150</v>
-      </c>
-      <c r="B49" t="s">
-        <v>151</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -4185,7 +4206,7 @@
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
         <v>37</v>
@@ -4193,10 +4214,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
         <v>152</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -4214,7 +4235,7 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -4229,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="M50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N50" t="s">
         <v>37</v>
@@ -4237,10 +4258,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
         <v>155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -4258,7 +4279,7 @@
         <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -4273,7 +4294,7 @@
         <v>37</v>
       </c>
       <c r="M51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N51" t="s">
         <v>37</v>
@@ -4281,10 +4302,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4302,7 +4323,7 @@
         <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -4317,7 +4338,7 @@
         <v>37</v>
       </c>
       <c r="M52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N52" t="s">
         <v>37</v>
@@ -4325,10 +4346,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>161</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4346,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -4361,7 +4382,7 @@
         <v>37</v>
       </c>
       <c r="M53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N53" t="s">
         <v>37</v>
@@ -4369,10 +4390,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
         <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>163</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4405,7 +4426,7 @@
         <v>37</v>
       </c>
       <c r="M54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N54" t="s">
         <v>37</v>
@@ -4413,10 +4434,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
         <v>164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>165</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4449,7 +4470,7 @@
         <v>37</v>
       </c>
       <c r="M55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N55" t="s">
         <v>37</v>
@@ -4457,10 +4478,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
         <v>166</v>
-      </c>
-      <c r="B56" t="s">
-        <v>167</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4493,7 +4514,7 @@
         <v>37</v>
       </c>
       <c r="M56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N56" t="s">
         <v>37</v>
@@ -4501,10 +4522,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
         <v>168</v>
-      </c>
-      <c r="B57" t="s">
-        <v>169</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4522,7 +4543,7 @@
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -4537,7 +4558,7 @@
         <v>37</v>
       </c>
       <c r="M57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N57" t="s">
         <v>37</v>
@@ -4545,10 +4566,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4566,7 +4587,7 @@
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -4581,7 +4602,7 @@
         <v>37</v>
       </c>
       <c r="M58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N58" t="s">
         <v>37</v>
@@ -4589,10 +4610,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4610,22 +4631,22 @@
         <v>23</v>
       </c>
       <c r="H59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
         <v>87</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59" t="s">
-        <v>37</v>
-      </c>
-      <c r="L59" t="s">
-        <v>37</v>
-      </c>
-      <c r="M59" t="s">
-        <v>88</v>
       </c>
       <c r="N59" t="s">
         <v>37</v>
@@ -4633,10 +4654,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
         <v>174</v>
-      </c>
-      <c r="B60" t="s">
-        <v>175</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4669,7 +4690,7 @@
         <v>37</v>
       </c>
       <c r="M60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N60" t="s">
         <v>37</v>
@@ -4677,16 +4698,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" t="s">
-        <v>177</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4713,7 +4734,7 @@
         <v>37</v>
       </c>
       <c r="M61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N61" t="s">
         <v>37</v>
@@ -4721,16 +4742,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
         <v>178</v>
-      </c>
-      <c r="B62" t="s">
-        <v>179</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -4742,13 +4763,13 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K62" t="s">
         <v>37</v>
@@ -4757,24 +4778,24 @@
         <v>37</v>
       </c>
       <c r="M62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
         <v>181</v>
-      </c>
-      <c r="B63" t="s">
-        <v>182</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -4786,13 +4807,13 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K63" t="s">
         <v>37</v>
@@ -4801,24 +4822,24 @@
         <v>37</v>
       </c>
       <c r="M63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
         <v>184</v>
-      </c>
-      <c r="B64" t="s">
-        <v>185</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4830,13 +4851,13 @@
         <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K64" t="s">
         <v>37</v>
@@ -4845,24 +4866,24 @@
         <v>37</v>
       </c>
       <c r="M64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
         <v>187</v>
-      </c>
-      <c r="B65" t="s">
-        <v>188</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -4874,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -4897,16 +4918,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
         <v>190</v>
-      </c>
-      <c r="B66" t="s">
-        <v>191</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4918,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -4941,16 +4962,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
         <v>192</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -4962,7 +4983,7 @@
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -4977,7 +4998,7 @@
         <v>37</v>
       </c>
       <c r="M67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N67" t="s">
         <v>37</v>
@@ -4985,16 +5006,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
         <v>195</v>
-      </c>
-      <c r="B68" t="s">
-        <v>196</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -5006,22 +5027,22 @@
         <v>23</v>
       </c>
       <c r="H68" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" t="s">
         <v>197</v>
-      </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" t="s">
-        <v>37</v>
-      </c>
-      <c r="K68" t="s">
-        <v>37</v>
-      </c>
-      <c r="L68" t="s">
-        <v>37</v>
-      </c>
-      <c r="M68" t="s">
-        <v>198</v>
       </c>
       <c r="N68" t="s">
         <v>37</v>
@@ -5029,16 +5050,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" t="s">
         <v>199</v>
-      </c>
-      <c r="B69" t="s">
-        <v>200</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5050,7 +5071,7 @@
         <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -5065,7 +5086,7 @@
         <v>37</v>
       </c>
       <c r="M69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N69" t="s">
         <v>37</v>
@@ -5073,16 +5094,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
         <v>202</v>
-      </c>
-      <c r="B70" t="s">
-        <v>203</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5094,7 +5115,7 @@
         <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -5109,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="M70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N70" t="s">
         <v>37</v>
@@ -5117,16 +5138,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
         <v>205</v>
-      </c>
-      <c r="B71" t="s">
-        <v>206</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5138,7 +5159,7 @@
         <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -5153,7 +5174,7 @@
         <v>37</v>
       </c>
       <c r="M71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N71" t="s">
         <v>37</v>
@@ -5161,16 +5182,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
         <v>208</v>
-      </c>
-      <c r="B72" t="s">
-        <v>209</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -5182,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -5197,7 +5218,7 @@
         <v>37</v>
       </c>
       <c r="M72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N72" t="s">
         <v>37</v>
@@ -5205,16 +5226,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -5226,7 +5247,7 @@
         <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -5249,16 +5270,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
         <v>212</v>
-      </c>
-      <c r="B74" t="s">
-        <v>213</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -5270,7 +5291,7 @@
         <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -5285,7 +5306,7 @@
         <v>37</v>
       </c>
       <c r="M74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N74" t="s">
         <v>37</v>
@@ -5293,16 +5314,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
         <v>215</v>
-      </c>
-      <c r="B75" t="s">
-        <v>216</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -5314,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -5337,16 +5358,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
         <v>217</v>
-      </c>
-      <c r="B76" t="s">
-        <v>218</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -5358,7 +5379,7 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -5373,24 +5394,24 @@
         <v>37</v>
       </c>
       <c r="M76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
         <v>219</v>
-      </c>
-      <c r="B77" t="s">
-        <v>220</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -5402,7 +5423,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -5417,7 +5438,7 @@
         <v>37</v>
       </c>
       <c r="M77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N77" t="s">
         <v>37</v>
@@ -5425,16 +5446,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
         <v>222</v>
-      </c>
-      <c r="B78" t="s">
-        <v>223</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -5446,7 +5467,7 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -5469,16 +5490,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" t="s">
         <v>224</v>
-      </c>
-      <c r="B79" t="s">
-        <v>225</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5490,7 +5511,7 @@
         <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -5505,24 +5526,24 @@
         <v>37</v>
       </c>
       <c r="M79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
         <v>226</v>
-      </c>
-      <c r="B80" t="s">
-        <v>227</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -5531,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -5557,16 +5578,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
         <v>228</v>
-      </c>
-      <c r="B81" t="s">
-        <v>229</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5575,10 +5596,10 @@
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -5601,16 +5622,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
         <v>231</v>
-      </c>
-      <c r="B82" t="s">
-        <v>232</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5622,7 +5643,7 @@
         <v>23</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -5637,7 +5658,7 @@
         <v>37</v>
       </c>
       <c r="M82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N82" t="s">
         <v>37</v>
@@ -5645,16 +5666,16 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
         <v>234</v>
-      </c>
-      <c r="B83" t="s">
-        <v>235</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5666,7 +5687,7 @@
         <v>23</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -5681,7 +5702,7 @@
         <v>37</v>
       </c>
       <c r="M83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N83" t="s">
         <v>37</v>
@@ -5689,16 +5710,16 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
         <v>237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>238</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -5710,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -5733,16 +5754,16 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s">
         <v>240</v>
-      </c>
-      <c r="B85" t="s">
-        <v>241</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5754,7 +5775,7 @@
         <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -5769,7 +5790,7 @@
         <v>37</v>
       </c>
       <c r="M85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N85" t="s">
         <v>37</v>
@@ -5777,16 +5798,16 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" t="s">
         <v>243</v>
-      </c>
-      <c r="B86" t="s">
-        <v>244</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5813,7 +5834,7 @@
         <v>37</v>
       </c>
       <c r="M86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N86" t="s">
         <v>37</v>
@@ -5821,16 +5842,16 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
         <v>245</v>
-      </c>
-      <c r="B87" t="s">
-        <v>246</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5865,16 +5886,16 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" t="s">
         <v>247</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88">
         <v>10</v>
@@ -5886,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -5901,7 +5922,7 @@
         <v>37</v>
       </c>
       <c r="M88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N88" t="s">
         <v>37</v>
@@ -5909,16 +5930,16 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
         <v>250</v>
-      </c>
-      <c r="B89" t="s">
-        <v>251</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E89">
         <v>10</v>
@@ -5930,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -5945,7 +5966,7 @@
         <v>37</v>
       </c>
       <c r="M89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N89" t="s">
         <v>37</v>
@@ -5953,16 +5974,16 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
         <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5974,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -5997,16 +6018,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" t="s">
         <v>255</v>
-      </c>
-      <c r="B91" t="s">
-        <v>256</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6018,7 +6039,7 @@
         <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -6036,21 +6057,21 @@
         <v>37</v>
       </c>
       <c r="N91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
         <v>258</v>
-      </c>
-      <c r="B92" t="s">
-        <v>259</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -6077,24 +6098,24 @@
         <v>37</v>
       </c>
       <c r="M92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
         <v>260</v>
-      </c>
-      <c r="B93" t="s">
-        <v>261</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6121,7 +6142,7 @@
         <v>37</v>
       </c>
       <c r="M93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s">
         <v>37</v>
@@ -6129,16 +6150,16 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
         <v>262</v>
-      </c>
-      <c r="B94" t="s">
-        <v>263</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -6147,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -6173,16 +6194,16 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
         <v>265</v>
-      </c>
-      <c r="B95" t="s">
-        <v>266</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -6194,7 +6215,7 @@
         <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -6217,16 +6238,16 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" t="s">
         <v>268</v>
-      </c>
-      <c r="B96" t="s">
-        <v>269</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -6238,22 +6259,22 @@
         <v>23</v>
       </c>
       <c r="H96" t="s">
+        <v>269</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>37</v>
+      </c>
+      <c r="L96" t="s">
+        <v>37</v>
+      </c>
+      <c r="M96" t="s">
         <v>270</v>
-      </c>
-      <c r="I96" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" t="s">
-        <v>37</v>
-      </c>
-      <c r="K96" t="s">
-        <v>37</v>
-      </c>
-      <c r="L96" t="s">
-        <v>37</v>
-      </c>
-      <c r="M96" t="s">
-        <v>271</v>
       </c>
       <c r="N96" t="s">
         <v>37</v>
@@ -6261,16 +6282,16 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" t="s">
         <v>272</v>
-      </c>
-      <c r="B97" t="s">
-        <v>273</v>
       </c>
       <c r="C97">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -6282,7 +6303,7 @@
         <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -6297,7 +6318,7 @@
         <v>37</v>
       </c>
       <c r="M97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N97" t="s">
         <v>37</v>
@@ -6305,16 +6326,16 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" t="s">
         <v>275</v>
-      </c>
-      <c r="B98" t="s">
-        <v>276</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E98">
         <v>10</v>
@@ -6326,7 +6347,7 @@
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -6349,16 +6370,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
         <v>277</v>
-      </c>
-      <c r="B99" t="s">
-        <v>278</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -6367,10 +6388,10 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -6393,16 +6414,16 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
         <v>279</v>
-      </c>
-      <c r="B100" t="s">
-        <v>280</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -6414,22 +6435,22 @@
         <v>23</v>
       </c>
       <c r="H100" t="s">
+        <v>280</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" t="s">
+        <v>37</v>
+      </c>
+      <c r="M100" t="s">
         <v>281</v>
-      </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" t="s">
-        <v>37</v>
-      </c>
-      <c r="K100" t="s">
-        <v>37</v>
-      </c>
-      <c r="L100" t="s">
-        <v>37</v>
-      </c>
-      <c r="M100" t="s">
-        <v>282</v>
       </c>
       <c r="N100" t="s">
         <v>37</v>
@@ -6437,16 +6458,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" t="s">
         <v>283</v>
-      </c>
-      <c r="B101" t="s">
-        <v>284</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -6455,10 +6476,10 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -6481,16 +6502,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" t="s">
         <v>285</v>
-      </c>
-      <c r="B102" t="s">
-        <v>286</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -6502,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -6517,7 +6538,7 @@
         <v>37</v>
       </c>
       <c r="M102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N102" t="s">
         <v>37</v>
@@ -6525,16 +6546,16 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" t="s">
         <v>288</v>
-      </c>
-      <c r="B103" t="s">
-        <v>289</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6546,7 +6567,7 @@
         <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -6561,7 +6582,7 @@
         <v>37</v>
       </c>
       <c r="M103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N103" t="s">
         <v>37</v>
@@ -6569,16 +6590,16 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" t="s">
         <v>290</v>
-      </c>
-      <c r="B104" t="s">
-        <v>291</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E104">
         <v>20</v>
@@ -6587,10 +6608,10 @@
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -6613,16 +6634,16 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" t="s">
         <v>292</v>
-      </c>
-      <c r="B105" t="s">
-        <v>293</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E105">
         <v>15</v>
@@ -6634,7 +6655,7 @@
         <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -6657,16 +6678,16 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" t="s">
         <v>296</v>
-      </c>
-      <c r="B106" t="s">
-        <v>297</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -6678,7 +6699,7 @@
         <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -6701,16 +6722,16 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" t="s">
         <v>298</v>
-      </c>
-      <c r="B107" t="s">
-        <v>299</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -6722,7 +6743,7 @@
         <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -6745,28 +6766,28 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" t="s">
         <v>302</v>
-      </c>
-      <c r="B108" t="s">
-        <v>303</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>303</v>
+      </c>
+      <c r="H108" t="s">
         <v>300</v>
-      </c>
-      <c r="E108">
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>304</v>
-      </c>
-      <c r="H108" t="s">
-        <v>301</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -6789,16 +6810,16 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
         <v>305</v>
-      </c>
-      <c r="B109" t="s">
-        <v>306</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E109">
         <v>10</v>
@@ -6807,10 +6828,10 @@
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -6833,16 +6854,16 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" t="s">
         <v>308</v>
-      </c>
-      <c r="B110" t="s">
-        <v>309</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E110">
         <v>10</v>
@@ -6854,13 +6875,13 @@
         <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
       </c>
       <c r="J110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K110" t="s">
         <v>37</v>
@@ -6877,16 +6898,16 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" t="s">
         <v>311</v>
-      </c>
-      <c r="B111" t="s">
-        <v>312</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E111">
         <v>10</v>
@@ -6895,10 +6916,10 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -6913,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="M111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N111" t="s">
         <v>37</v>
@@ -6921,16 +6942,16 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
         <v>314</v>
-      </c>
-      <c r="B112" t="s">
-        <v>315</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -6942,7 +6963,7 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -6965,16 +6986,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E113">
         <v>10</v>
@@ -6983,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H113" t="s">
         <v>37</v>
@@ -7009,16 +7030,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -7053,16 +7074,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E115">
         <v>10</v>
@@ -7071,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H115" t="s">
         <v>37</v>
@@ -7097,16 +7118,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -7141,16 +7162,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7185,16 +7206,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B118" t="s">
         <v>326</v>
-      </c>
-      <c r="B118" t="s">
-        <v>327</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E118">
         <v>10</v>
@@ -7206,7 +7227,7 @@
         <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -7229,16 +7250,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" t="s">
         <v>328</v>
-      </c>
-      <c r="B119" t="s">
-        <v>329</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -7250,7 +7271,7 @@
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -7273,16 +7294,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E120">
         <v>10</v>
@@ -7294,7 +7315,7 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -7317,16 +7338,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E121">
         <v>10</v>
@@ -7338,7 +7359,7 @@
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -7353,7 +7374,7 @@
         <v>37</v>
       </c>
       <c r="M121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N121" t="s">
         <v>37</v>
@@ -7361,16 +7382,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B122" t="s">
         <v>333</v>
-      </c>
-      <c r="B122" t="s">
-        <v>334</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -7379,10 +7400,10 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -7405,16 +7426,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" t="s">
         <v>336</v>
-      </c>
-      <c r="B123" t="s">
-        <v>337</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E123">
         <v>10</v>
@@ -7423,7 +7444,7 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H123" t="s">
         <v>37</v>

--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joematthews/Desktop/PreReg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7E94E-BF07-DB4C-BE3C-CFF2B0B5B7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7423792B-EE5F-3041-B36B-F76AF4A80615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working App back end " sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working App back end '!$A$1:$K$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working App back end '!$A$1:$K$124</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="379">
   <si>
     <t>Code</t>
   </si>
@@ -382,9 +382,6 @@
     <t>MAS3903 Linear Models</t>
   </si>
   <si>
-    <t>STJH</t>
-  </si>
-  <si>
     <t>MAS3907;MAS3906</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
     <t>MAS8091 MMath Project</t>
   </si>
   <si>
-    <t>PU/AP</t>
-  </si>
-  <si>
     <t>MAS8391</t>
   </si>
   <si>
@@ -628,9 +622,6 @@
     <t>PHY2028 Skills in Physics</t>
   </si>
   <si>
-    <t>F344;F345;F300;F303</t>
-  </si>
-  <si>
     <t>PHY1030</t>
   </si>
   <si>
@@ -670,9 +661,6 @@
     <t>PHY1030;PHY1033</t>
   </si>
   <si>
-    <t>PHY2036 Thermodynamics &amp; Statisrtical Mechanics</t>
-  </si>
-  <si>
     <t>PHY2038</t>
   </si>
   <si>
@@ -736,18 +724,12 @@
     <t>PHY3029 Variational Methods&amp;Langrangian Dynamics</t>
   </si>
   <si>
-    <t>F344, F303</t>
-  </si>
-  <si>
     <t>PHY3032</t>
   </si>
   <si>
     <t xml:space="preserve">PHY3032 Advanced Electromagnetism </t>
   </si>
   <si>
-    <t xml:space="preserve">F345;F344, F303, </t>
-  </si>
-  <si>
     <t>PHY3033</t>
   </si>
   <si>
@@ -763,9 +745,6 @@
     <t>PHY3034 Theoretical Project</t>
   </si>
   <si>
-    <t>F345, F3F5</t>
-  </si>
-  <si>
     <t>PHY3036</t>
   </si>
   <si>
@@ -889,9 +868,6 @@
     <t>PHY8050</t>
   </si>
   <si>
-    <t>PHY8046 Extended Project- Mphys Theoretical Phy</t>
-  </si>
-  <si>
     <t>PHY8052</t>
   </si>
   <si>
@@ -1087,27 +1063,6 @@
     <t>F344;F345;F3F5;F3FM;F300;F303</t>
   </si>
   <si>
-    <t>F344;F345;F3F5;F3FM;F300;F304</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F305</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F306</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F307</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F308</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F309</t>
-  </si>
-  <si>
-    <t>F344;F345;F3F5;F3FM;F300;F310</t>
-  </si>
-  <si>
     <t>SH</t>
   </si>
   <si>
@@ -1139,6 +1094,87 @@
   </si>
   <si>
     <t>MAS2903;MAS3918;MAS3902;MAS3903;MAS3905;MAS3917;MAS3906;MAS2906</t>
+  </si>
+  <si>
+    <t>G1N3;G1N4;ACC1</t>
+  </si>
+  <si>
+    <t>G1N3;ACC2</t>
+  </si>
+  <si>
+    <t>PJH;MWFSP;MWBJP</t>
+  </si>
+  <si>
+    <t>PJH;P2JH;MWFSP;MWFSB;MWBJP;MWBPA;MWBPS</t>
+  </si>
+  <si>
+    <t>AJH;A2JH;MWFSA;MWFSB;MWBJA;MWBPA;MWBAS</t>
+  </si>
+  <si>
+    <t>AJH;MWFSA;MWBJA</t>
+  </si>
+  <si>
+    <t>SJH;S2JH;G1N3;MWBJS;MWBPS;MWBAS</t>
+  </si>
+  <si>
+    <t>SJH;MWBJS</t>
+  </si>
+  <si>
+    <t>CEG3707</t>
+  </si>
+  <si>
+    <t>CEG3707 Geohazards &amp; Deformation of the Earth</t>
+  </si>
+  <si>
+    <t>F344;F303</t>
+  </si>
+  <si>
+    <t>F345;F344;F303</t>
+  </si>
+  <si>
+    <t>F345;F3F5</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>PHY2036 Thermodynamics &amp; Statistical Mechanics</t>
+  </si>
+  <si>
+    <t>F300;F303;F3FM;f344</t>
+  </si>
+  <si>
+    <t>F3F5;F3FM;F303;F344;F345</t>
+  </si>
+  <si>
+    <t>F3F5;F3FM;F344;FS45</t>
+  </si>
+  <si>
+    <t>F344;F3FM</t>
+  </si>
+  <si>
+    <t>PU;AP</t>
+  </si>
+  <si>
+    <t>AP;ST</t>
+  </si>
+  <si>
+    <t>PU;ST</t>
+  </si>
+  <si>
+    <t>PHY8050 Extended Project- MPhys Theoretical Physics</t>
+  </si>
+  <si>
+    <t>F344;F345</t>
+  </si>
+  <si>
+    <t>PJH;P2JH;MWFSP;MWFSB;MWPJP;MWBPA;MWBPS;MWBJP</t>
+  </si>
+  <si>
+    <t>F303;MPWA1</t>
+  </si>
+  <si>
+    <t>F303;MPWA2</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1602,6 +1638,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1647,7 +1692,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
@@ -1656,6 +1701,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1701,28 +1747,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2032,31 +2057,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
     <col min="13" max="13" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2091,16 +2118,19 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -2143,8 +2173,11 @@
       <c r="N2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2200,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -2182,13 +2215,16 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -2231,8 +2267,11 @@
       <c r="N4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -2275,8 +2314,11 @@
       <c r="N5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2299,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -2319,8 +2361,11 @@
       <c r="N6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -2363,8 +2408,11 @@
       <c r="N7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2387,7 +2435,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -2407,8 +2455,11 @@
       <c r="N8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2431,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2451,8 +2502,11 @@
       <c r="N9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2475,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2495,9 +2549,12 @@
       <c r="N10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2519,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -2539,8 +2596,11 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2563,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -2583,8 +2643,11 @@
       <c r="N12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2607,13 +2670,13 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -2627,8 +2690,11 @@
       <c r="N13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2651,7 +2717,7 @@
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -2671,8 +2737,11 @@
       <c r="N14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +2776,7 @@
         <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M15" t="s">
         <v>61</v>
@@ -2715,8 +2784,11 @@
       <c r="N15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2759,8 +2831,11 @@
       <c r="N16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2803,8 +2878,11 @@
       <c r="N17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2917,7 @@
         <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
@@ -2847,8 +2925,11 @@
       <c r="N18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2891,8 +2972,11 @@
       <c r="N19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -2935,8 +3019,11 @@
       <c r="N20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2971,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M21" t="s">
         <v>61</v>
@@ -2979,8 +3066,11 @@
       <c r="N21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3023,8 +3113,11 @@
       <c r="N22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3067,8 +3160,11 @@
       <c r="N23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -3103,7 +3199,7 @@
         <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M24" t="s">
         <v>85</v>
@@ -3111,8 +3207,11 @@
       <c r="N24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3254,11 @@
       <c r="N25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3199,8 +3301,11 @@
       <c r="N26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -3235,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M27" t="s">
         <v>85</v>
@@ -3243,8 +3348,11 @@
       <c r="N27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -3287,8 +3395,11 @@
       <c r="N28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -3323,16 +3434,19 @@
         <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M29" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="N29" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -3375,8 +3489,11 @@
       <c r="N30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -3419,8 +3536,11 @@
       <c r="N31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -3463,8 +3583,11 @@
       <c r="N32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -3487,33 +3610,36 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
         <v>114</v>
       </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
         <v>115</v>
       </c>
-      <c r="K33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>116</v>
       </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>117</v>
-      </c>
-      <c r="B34" t="s">
-        <v>118</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3531,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -3551,13 +3677,16 @@
       <c r="N34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -3587,21 +3716,24 @@
         <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
         <v>122</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -3619,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -3634,18 +3766,21 @@
         <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -3675,21 +3810,24 @@
         <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
         <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>127</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -3722,18 +3860,21 @@
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
         <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3763,7 +3904,7 @@
         <v>37</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s">
         <v>110</v>
@@ -3771,13 +3912,16 @@
       <c r="N39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
         <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3795,33 +3939,36 @@
         <v>57</v>
       </c>
       <c r="H40" t="s">
+        <v>371</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
         <v>132</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3859,13 +4006,16 @@
       <c r="N41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -3895,7 +4045,7 @@
         <v>37</v>
       </c>
       <c r="L42" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s">
         <v>61</v>
@@ -3903,13 +4053,16 @@
       <c r="N42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3947,13 +4100,16 @@
       <c r="N43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3991,13 +4147,16 @@
       <c r="N44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4035,13 +4194,16 @@
       <c r="N45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4074,18 +4236,21 @@
         <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4123,13 +4288,16 @@
       <c r="N47" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -4159,7 +4327,7 @@
         <v>37</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="M48" t="s">
         <v>76</v>
@@ -4167,13 +4335,16 @@
       <c r="N48" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -4211,13 +4382,16 @@
       <c r="N49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -4250,18 +4424,21 @@
         <v>37</v>
       </c>
       <c r="M50" t="s">
+        <v>151</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
         <v>153</v>
-      </c>
-      <c r="N50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -4294,18 +4471,21 @@
         <v>37</v>
       </c>
       <c r="M51" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4338,18 +4518,21 @@
         <v>37</v>
       </c>
       <c r="M52" t="s">
+        <v>156</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
         <v>158</v>
-      </c>
-      <c r="N52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" t="s">
-        <v>160</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4382,18 +4565,21 @@
         <v>37</v>
       </c>
       <c r="M53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N53" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4431,13 +4617,16 @@
       <c r="N54" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4467,21 +4656,24 @@
         <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4519,13 +4711,16 @@
       <c r="N56" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4558,18 +4753,21 @@
         <v>37</v>
       </c>
       <c r="M57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4602,18 +4800,21 @@
         <v>37</v>
       </c>
       <c r="M58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4651,13 +4852,16 @@
       <c r="N59" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4695,13 +4899,16 @@
       <c r="N60" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4731,7 +4938,7 @@
         <v>37</v>
       </c>
       <c r="L61" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="M61" t="s">
         <v>110</v>
@@ -4739,13 +4946,16 @@
       <c r="N61" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4769,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K62" t="s">
         <v>37</v>
@@ -4781,15 +4991,18 @@
         <v>106</v>
       </c>
       <c r="N62" t="s">
+        <v>177</v>
+      </c>
+      <c r="O62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" t="s">
-        <v>181</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -4813,7 +5026,7 @@
         <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K63" t="s">
         <v>37</v>
@@ -4825,15 +5038,18 @@
         <v>106</v>
       </c>
       <c r="N63" t="s">
+        <v>180</v>
+      </c>
+      <c r="O63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" t="s">
-        <v>184</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4857,7 +5073,7 @@
         <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K64" t="s">
         <v>37</v>
@@ -4869,21 +5085,24 @@
         <v>106</v>
       </c>
       <c r="N64" t="s">
+        <v>183</v>
+      </c>
+      <c r="O64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" t="s">
-        <v>187</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -4895,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -4915,19 +5134,22 @@
       <c r="N65" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4939,7 +5161,7 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -4959,19 +5181,22 @@
       <c r="N66" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -4983,7 +5208,7 @@
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -4998,24 +5223,27 @@
         <v>37</v>
       </c>
       <c r="M67" t="s">
+        <v>191</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
         <v>193</v>
-      </c>
-      <c r="N67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" t="s">
-        <v>195</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -5027,39 +5255,42 @@
         <v>23</v>
       </c>
       <c r="H68" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" t="s">
+        <v>194</v>
+      </c>
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
         <v>196</v>
-      </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" t="s">
-        <v>37</v>
-      </c>
-      <c r="K68" t="s">
-        <v>37</v>
-      </c>
-      <c r="L68" t="s">
-        <v>37</v>
-      </c>
-      <c r="M68" t="s">
-        <v>197</v>
-      </c>
-      <c r="N68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" t="s">
-        <v>199</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5071,7 +5302,7 @@
         <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -5086,24 +5317,27 @@
         <v>37</v>
       </c>
       <c r="M69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N69" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5115,7 +5349,7 @@
         <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -5130,24 +5364,27 @@
         <v>37</v>
       </c>
       <c r="M70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N70" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5159,7 +5396,7 @@
         <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -5174,24 +5411,27 @@
         <v>37</v>
       </c>
       <c r="M71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N71" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -5203,39 +5443,42 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
+        <v>203</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72" t="s">
         <v>206</v>
       </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" t="s">
-        <v>37</v>
-      </c>
-      <c r="K72" t="s">
-        <v>37</v>
-      </c>
-      <c r="L72" t="s">
-        <v>37</v>
-      </c>
-      <c r="M72" t="s">
-        <v>209</v>
-      </c>
       <c r="N72" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -5247,7 +5490,7 @@
         <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -5267,19 +5510,22 @@
       <c r="N73" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -5291,7 +5537,7 @@
         <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -5306,24 +5552,27 @@
         <v>37</v>
       </c>
       <c r="M74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -5335,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -5355,19 +5604,22 @@
       <c r="N75" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -5379,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -5394,24 +5646,27 @@
         <v>37</v>
       </c>
       <c r="M76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N76" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -5423,7 +5678,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -5438,24 +5693,27 @@
         <v>37</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N77" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -5467,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -5487,19 +5745,22 @@
       <c r="N78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5511,7 +5772,7 @@
         <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -5526,24 +5787,27 @@
         <v>37</v>
       </c>
       <c r="M79" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="N79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="O79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -5555,7 +5819,7 @@
         <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -5575,19 +5839,22 @@
       <c r="N80" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5599,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -5619,19 +5886,22 @@
       <c r="N81" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5643,7 +5913,7 @@
         <v>23</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -5658,24 +5928,27 @@
         <v>37</v>
       </c>
       <c r="M82" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N82" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5687,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -5702,24 +5975,27 @@
         <v>37</v>
       </c>
       <c r="M83" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N83" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -5731,7 +6007,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -5751,19 +6027,22 @@
       <c r="N84" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5775,7 +6054,7 @@
         <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -5790,24 +6069,27 @@
         <v>37</v>
       </c>
       <c r="M85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N85" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5834,24 +6116,27 @@
         <v>37</v>
       </c>
       <c r="M86" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N86" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5883,19 +6168,22 @@
       <c r="N87" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E88">
         <v>10</v>
@@ -5907,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -5922,24 +6210,27 @@
         <v>37</v>
       </c>
       <c r="M88" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N88" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89">
         <v>10</v>
@@ -5951,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -5966,24 +6257,27 @@
         <v>37</v>
       </c>
       <c r="M89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N89" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5995,7 +6289,7 @@
         <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -6015,19 +6309,22 @@
       <c r="N90" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6039,7 +6336,7 @@
         <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -6057,21 +6354,24 @@
         <v>37</v>
       </c>
       <c r="N91" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -6098,24 +6398,27 @@
         <v>37</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="N92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="O92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6142,24 +6445,27 @@
         <v>37</v>
       </c>
       <c r="M93" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N93" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -6171,7 +6477,7 @@
         <v>57</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -6191,19 +6497,22 @@
       <c r="N94" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -6215,7 +6524,7 @@
         <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>377</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -6235,19 +6544,22 @@
       <c r="N95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -6259,7 +6571,7 @@
         <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -6274,24 +6586,27 @@
         <v>37</v>
       </c>
       <c r="M96" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N96" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C97">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -6303,7 +6618,7 @@
         <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -6318,24 +6633,27 @@
         <v>37</v>
       </c>
       <c r="M97" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N97" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E98">
         <v>10</v>
@@ -6347,7 +6665,7 @@
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -6367,19 +6685,22 @@
       <c r="N98" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -6391,7 +6712,7 @@
         <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -6411,19 +6732,22 @@
       <c r="N99" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -6435,7 +6759,7 @@
         <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -6450,24 +6774,27 @@
         <v>37</v>
       </c>
       <c r="M100" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N100" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -6479,7 +6806,7 @@
         <v>57</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -6499,19 +6826,22 @@
       <c r="N101" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -6523,39 +6853,42 @@
         <v>15</v>
       </c>
       <c r="H102" t="s">
+        <v>273</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s">
+        <v>37</v>
+      </c>
+      <c r="L102" t="s">
+        <v>37</v>
+      </c>
+      <c r="M102" t="s">
+        <v>278</v>
+      </c>
+      <c r="N102" t="s">
+        <v>37</v>
+      </c>
+      <c r="O102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" t="s">
         <v>280</v>
-      </c>
-      <c r="I102" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" t="s">
-        <v>37</v>
-      </c>
-      <c r="K102" t="s">
-        <v>37</v>
-      </c>
-      <c r="L102" t="s">
-        <v>37</v>
-      </c>
-      <c r="M102" t="s">
-        <v>286</v>
-      </c>
-      <c r="N102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>287</v>
-      </c>
-      <c r="B103" t="s">
-        <v>288</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6567,7 +6900,7 @@
         <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -6582,24 +6915,27 @@
         <v>37</v>
       </c>
       <c r="M103" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N103" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E104">
         <v>20</v>
@@ -6611,7 +6947,7 @@
         <v>57</v>
       </c>
       <c r="H104" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -6631,19 +6967,22 @@
       <c r="N104" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E105">
         <v>15</v>
@@ -6655,7 +6994,7 @@
         <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -6675,19 +7014,22 @@
       <c r="N105" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -6699,7 +7041,7 @@
         <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -6719,19 +7061,22 @@
       <c r="N106" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -6743,7 +7088,7 @@
         <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -6763,19 +7108,22 @@
       <c r="N107" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -6784,10 +7132,10 @@
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H108" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -6807,19 +7155,22 @@
       <c r="N108" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E109">
         <v>10</v>
@@ -6831,7 +7182,7 @@
         <v>57</v>
       </c>
       <c r="H109" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -6851,19 +7202,22 @@
       <c r="N109" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E110">
         <v>10</v>
@@ -6875,13 +7229,13 @@
         <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
       </c>
       <c r="J110" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K110" t="s">
         <v>37</v>
@@ -6895,19 +7249,22 @@
       <c r="N110" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E111">
         <v>10</v>
@@ -6919,7 +7276,7 @@
         <v>57</v>
       </c>
       <c r="H111" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -6934,24 +7291,27 @@
         <v>37</v>
       </c>
       <c r="M111" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N111" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -6963,7 +7323,7 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -6983,19 +7343,22 @@
       <c r="N112" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E113">
         <v>10</v>
@@ -7004,7 +7367,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H113" t="s">
         <v>37</v>
@@ -7027,19 +7390,22 @@
       <c r="N113" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -7071,19 +7437,22 @@
       <c r="N114" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E115">
         <v>10</v>
@@ -7115,19 +7484,22 @@
       <c r="N115" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -7159,19 +7531,22 @@
       <c r="N116" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7203,19 +7578,22 @@
       <c r="N117" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E118">
         <v>10</v>
@@ -7227,7 +7605,7 @@
         <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -7247,19 +7625,22 @@
       <c r="N118" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -7271,7 +7652,7 @@
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -7291,19 +7672,22 @@
       <c r="N119" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E120">
         <v>10</v>
@@ -7315,7 +7699,7 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -7335,19 +7719,22 @@
       <c r="N120" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E121">
         <v>10</v>
@@ -7359,7 +7746,7 @@
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -7374,24 +7761,27 @@
         <v>37</v>
       </c>
       <c r="M121" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N121" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -7403,7 +7793,7 @@
         <v>57</v>
       </c>
       <c r="H122" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -7423,19 +7813,22 @@
       <c r="N122" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B123" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E123">
         <v>10</v>
@@ -7467,9 +7860,56 @@
       <c r="N123" t="s">
         <v>37</v>
       </c>
+      <c r="O123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" t="s">
+        <v>37</v>
+      </c>
+      <c r="L124" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124" t="s">
+        <v>37</v>
+      </c>
+      <c r="N124" t="s">
+        <v>37</v>
+      </c>
+      <c r="O124" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K104" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:K124" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K104">
       <sortCondition ref="A1:A104"/>
     </sortState>

--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joematthews/Desktop/PreReg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7423792B-EE5F-3041-B36B-F76AF4A80615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960C115-F77D-AB49-88C6-07DF664F52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working App back end " sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working App back end '!$A$1:$K$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working App back end '!$A$1:$K$125</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="381">
   <si>
     <t>Code</t>
   </si>
@@ -721,9 +721,6 @@
     <t>PHY3029</t>
   </si>
   <si>
-    <t>PHY3029 Variational Methods&amp;Langrangian Dynamics</t>
-  </si>
-  <si>
     <t>PHY3032</t>
   </si>
   <si>
@@ -1141,15 +1138,9 @@
     <t>PHY2036 Thermodynamics &amp; Statistical Mechanics</t>
   </si>
   <si>
-    <t>F300;F303;F3FM;f344</t>
-  </si>
-  <si>
     <t>F3F5;F3FM;F303;F344;F345</t>
   </si>
   <si>
-    <t>F3F5;F3FM;F344;FS45</t>
-  </si>
-  <si>
     <t>F344;F3FM</t>
   </si>
   <si>
@@ -1175,6 +1166,21 @@
   </si>
   <si>
     <t>F303;MPWA2</t>
+  </si>
+  <si>
+    <t>GGC3</t>
+  </si>
+  <si>
+    <t>PHY2033 Fluid Dynamics (Stage 3)</t>
+  </si>
+  <si>
+    <t>PHY3029 Variational Methods &amp;Langrangian Dynamics</t>
+  </si>
+  <si>
+    <t>F300;F303;F3FM;F344</t>
+  </si>
+  <si>
+    <t>F3F5;F3FM;F344;F345</t>
   </si>
 </sst>
 </file>
@@ -2057,13 +2063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2118,16 +2124,16 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2153,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -2200,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -2215,7 +2221,7 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
@@ -2247,7 +2253,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -2294,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -2341,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -2388,7 +2394,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -2435,7 +2441,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -2482,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2529,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2576,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -2623,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -2670,13 +2676,13 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -2717,7 +2723,7 @@
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -2776,7 +2782,7 @@
         <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M15" t="s">
         <v>61</v>
@@ -2917,7 +2923,7 @@
         <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
@@ -3058,7 +3064,7 @@
         <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M21" t="s">
         <v>61</v>
@@ -3199,7 +3205,7 @@
         <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M24" t="s">
         <v>85</v>
@@ -3340,7 +3346,7 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M27" t="s">
         <v>85</v>
@@ -3434,13 +3440,13 @@
         <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O29" t="s">
         <v>37</v>
@@ -3563,7 +3569,7 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -3716,7 +3722,7 @@
         <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s">
         <v>115</v>
@@ -3810,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s">
         <v>115</v>
@@ -3845,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -3904,7 +3910,7 @@
         <v>37</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s">
         <v>110</v>
@@ -3939,7 +3945,7 @@
         <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -4236,7 +4242,7 @@
         <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s">
         <v>37</v>
@@ -4430,7 +4436,7 @@
         <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -4471,13 +4477,13 @@
         <v>37</v>
       </c>
       <c r="M51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s">
         <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -4524,7 +4530,7 @@
         <v>37</v>
       </c>
       <c r="O52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -4571,7 +4577,7 @@
         <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -4659,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="M55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N55" t="s">
         <v>37</v>
@@ -4759,7 +4765,7 @@
         <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4806,7 +4812,7 @@
         <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -4853,7 +4859,7 @@
         <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -4994,7 +5000,7 @@
         <v>177</v>
       </c>
       <c r="O62" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5041,7 +5047,7 @@
         <v>180</v>
       </c>
       <c r="O63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5088,7 +5094,7 @@
         <v>183</v>
       </c>
       <c r="O64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -5114,7 +5120,7 @@
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -5161,7 +5167,7 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -5208,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -5255,7 +5261,7 @@
         <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -5302,7 +5308,7 @@
         <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -5317,10 +5323,10 @@
         <v>37</v>
       </c>
       <c r="M69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" t="s">
         <v>197</v>
-      </c>
-      <c r="N69" t="s">
-        <v>37</v>
       </c>
       <c r="O69" t="s">
         <v>37</v>
@@ -5349,7 +5355,7 @@
         <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -5411,10 +5417,10 @@
         <v>37</v>
       </c>
       <c r="M71" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" t="s">
         <v>189</v>
-      </c>
-      <c r="N71" t="s">
-        <v>37</v>
       </c>
       <c r="O71" t="s">
         <v>37</v>
@@ -5422,57 +5428,57 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>377</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>186</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" t="s">
+        <v>189</v>
+      </c>
+      <c r="O72" t="s">
         <v>203</v>
-      </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" t="s">
-        <v>37</v>
-      </c>
-      <c r="K72" t="s">
-        <v>37</v>
-      </c>
-      <c r="L72" t="s">
-        <v>37</v>
-      </c>
-      <c r="M72" t="s">
-        <v>206</v>
-      </c>
-      <c r="N72" t="s">
-        <v>37</v>
-      </c>
-      <c r="O72" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
+        <v>205</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -5484,13 +5490,13 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -5505,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="N73" t="s">
         <v>37</v>
@@ -5516,10 +5522,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5537,7 +5543,7 @@
         <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -5552,7 +5558,7 @@
         <v>37</v>
       </c>
       <c r="M74" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="N74" t="s">
         <v>37</v>
@@ -5563,10 +5569,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -5578,13 +5584,13 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -5599,7 +5605,7 @@
         <v>37</v>
       </c>
       <c r="M75" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="N75" t="s">
         <v>37</v>
@@ -5610,13 +5616,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
         <v>186</v>
@@ -5631,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -5646,10 +5652,10 @@
         <v>37</v>
       </c>
       <c r="M76" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="N76" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="O76" t="s">
         <v>37</v>
@@ -5657,10 +5663,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -5678,7 +5684,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -5693,10 +5699,10 @@
         <v>37</v>
       </c>
       <c r="M77" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="N77" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="O77" t="s">
         <v>37</v>
@@ -5704,10 +5710,10 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5725,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -5740,7 +5746,7 @@
         <v>37</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N78" t="s">
         <v>37</v>
@@ -5751,10 +5757,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -5763,16 +5769,16 @@
         <v>186</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -5787,10 +5793,10 @@
         <v>37</v>
       </c>
       <c r="M79" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="N79" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="O79" t="s">
         <v>37</v>
@@ -5798,10 +5804,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -5810,16 +5816,16 @@
         <v>186</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -5834,10 +5840,10 @@
         <v>37</v>
       </c>
       <c r="M80" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="N80" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="O80" t="s">
         <v>37</v>
@@ -5845,10 +5851,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -5857,16 +5863,16 @@
         <v>186</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -5887,15 +5893,15 @@
         <v>37</v>
       </c>
       <c r="O81" t="s">
-        <v>368</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -5907,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>362</v>
+        <v>57</v>
+      </c>
+      <c r="H82" t="s">
+        <v>225</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -5928,21 +5934,21 @@
         <v>37</v>
       </c>
       <c r="M82" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="N82" t="s">
         <v>37</v>
       </c>
       <c r="O82" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5960,7 +5966,7 @@
         <v>23</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -5986,10 +5992,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -5998,16 +6004,16 @@
         <v>186</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" t="s">
-        <v>232</v>
+        <v>23</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -6022,7 +6028,7 @@
         <v>37</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N84" t="s">
         <v>37</v>
@@ -6033,10 +6039,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -6045,16 +6051,16 @@
         <v>186</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -6069,21 +6075,21 @@
         <v>37</v>
       </c>
       <c r="M85" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="N85" t="s">
         <v>37</v>
       </c>
       <c r="O85" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -6095,13 +6101,13 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
         <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -6116,21 +6122,21 @@
         <v>37</v>
       </c>
       <c r="M86" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="N86" t="s">
         <v>37</v>
       </c>
       <c r="O86" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -6163,7 +6169,7 @@
         <v>37</v>
       </c>
       <c r="M87" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N87" t="s">
         <v>37</v>
@@ -6174,10 +6180,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -6186,16 +6192,16 @@
         <v>186</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -6210,7 +6216,7 @@
         <v>37</v>
       </c>
       <c r="M88" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="N88" t="s">
         <v>37</v>
@@ -6221,10 +6227,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -6242,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>375</v>
+        <v>231</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -6257,21 +6263,21 @@
         <v>37</v>
       </c>
       <c r="M89" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="N89" t="s">
         <v>37</v>
       </c>
       <c r="O89" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -6280,16 +6286,16 @@
         <v>186</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -6304,21 +6310,21 @@
         <v>37</v>
       </c>
       <c r="M90" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="N90" t="s">
         <v>37</v>
       </c>
       <c r="O90" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -6336,7 +6342,7 @@
         <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -6354,7 +6360,7 @@
         <v>37</v>
       </c>
       <c r="N91" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="O91" t="s">
         <v>37</v>
@@ -6362,10 +6368,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -6374,16 +6380,16 @@
         <v>186</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -6398,21 +6404,21 @@
         <v>37</v>
       </c>
       <c r="M92" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="N92" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O92" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -6421,13 +6427,13 @@
         <v>186</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
         <v>37</v>
@@ -6445,21 +6451,21 @@
         <v>37</v>
       </c>
       <c r="M93" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="N93" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="O93" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -6468,16 +6474,16 @@
         <v>186</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -6492,24 +6498,24 @@
         <v>37</v>
       </c>
       <c r="M94" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N94" t="s">
         <v>37</v>
       </c>
       <c r="O94" t="s">
-        <v>369</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
         <v>186</v>
@@ -6518,13 +6524,13 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H95" t="s">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -6545,15 +6551,15 @@
         <v>37</v>
       </c>
       <c r="O95" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -6571,7 +6577,7 @@
         <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -6586,7 +6592,7 @@
         <v>37</v>
       </c>
       <c r="M96" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="N96" t="s">
         <v>37</v>
@@ -6597,10 +6603,10 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -6618,7 +6624,7 @@
         <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -6633,7 +6639,7 @@
         <v>37</v>
       </c>
       <c r="M97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N97" t="s">
         <v>37</v>
@@ -6644,10 +6650,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -6665,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -6680,21 +6686,21 @@
         <v>37</v>
       </c>
       <c r="M98" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="N98" t="s">
         <v>37</v>
       </c>
       <c r="O98" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -6703,16 +6709,16 @@
         <v>186</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -6733,15 +6739,15 @@
         <v>37</v>
       </c>
       <c r="O99" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -6750,16 +6756,16 @@
         <v>186</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H100" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -6774,21 +6780,21 @@
         <v>37</v>
       </c>
       <c r="M100" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="N100" t="s">
         <v>37</v>
       </c>
       <c r="O100" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B101" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -6797,16 +6803,16 @@
         <v>186</v>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -6821,21 +6827,21 @@
         <v>37</v>
       </c>
       <c r="M101" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="N101" t="s">
         <v>37</v>
       </c>
       <c r="O101" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -6844,16 +6850,16 @@
         <v>186</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H102" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -6868,21 +6874,21 @@
         <v>37</v>
       </c>
       <c r="M102" t="s">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="N102" t="s">
         <v>37</v>
       </c>
       <c r="O102" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -6891,16 +6897,16 @@
         <v>186</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -6915,21 +6921,21 @@
         <v>37</v>
       </c>
       <c r="M103" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="N103" t="s">
         <v>37</v>
       </c>
       <c r="O103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -6938,16 +6944,16 @@
         <v>186</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -6962,39 +6968,39 @@
         <v>37</v>
       </c>
       <c r="M104" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="N104" t="s">
         <v>37</v>
       </c>
       <c r="O104" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H105" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -7020,16 +7026,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -7041,7 +7047,7 @@
         <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -7067,28 +7073,28 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
         <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -7114,28 +7120,28 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s">
         <v>291</v>
-      </c>
-      <c r="E108">
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>295</v>
-      </c>
-      <c r="H108" t="s">
-        <v>292</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -7161,28 +7167,28 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
+        <v>290</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>294</v>
+      </c>
+      <c r="H109" t="s">
         <v>291</v>
-      </c>
-      <c r="E109">
-        <v>10</v>
-      </c>
-      <c r="F109">
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>57</v>
-      </c>
-      <c r="H109" t="s">
-        <v>352</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -7208,16 +7214,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E110">
         <v>10</v>
@@ -7226,16 +7232,16 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
       </c>
       <c r="J110" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="K110" t="s">
         <v>37</v>
@@ -7255,16 +7261,16 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E111">
         <v>10</v>
@@ -7273,16 +7279,16 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="K111" t="s">
         <v>37</v>
@@ -7291,7 +7297,7 @@
         <v>37</v>
       </c>
       <c r="M111" t="s">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="N111" t="s">
         <v>37</v>
@@ -7302,75 +7308,75 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>303</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112" t="s">
+        <v>298</v>
+      </c>
+      <c r="N112" t="s">
+        <v>37</v>
+      </c>
+      <c r="O112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" t="s">
         <v>305</v>
-      </c>
-      <c r="B112" t="s">
-        <v>306</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>285</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" t="s">
-        <v>286</v>
-      </c>
-      <c r="I112" t="s">
-        <v>17</v>
-      </c>
-      <c r="J112" t="s">
-        <v>37</v>
-      </c>
-      <c r="K112" t="s">
-        <v>37</v>
-      </c>
-      <c r="L112" t="s">
-        <v>37</v>
-      </c>
-      <c r="M112" t="s">
-        <v>37</v>
-      </c>
-      <c r="N112" t="s">
-        <v>37</v>
-      </c>
-      <c r="O112" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" t="s">
         <v>285</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
-      </c>
-      <c r="F113">
-        <v>10</v>
-      </c>
-      <c r="G113" t="s">
-        <v>295</v>
-      </c>
-      <c r="H113" t="s">
-        <v>37</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -7396,16 +7402,16 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -7414,7 +7420,7 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="H114" t="s">
         <v>37</v>
@@ -7443,25 +7449,25 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
         <v>37</v>
@@ -7490,25 +7496,25 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H116" t="s">
         <v>37</v>
@@ -7537,16 +7543,16 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7584,19 +7590,19 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B118" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>10</v>
@@ -7605,7 +7611,7 @@
         <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -7631,16 +7637,16 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -7652,7 +7658,7 @@
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -7678,16 +7684,16 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="B120" t="s">
+        <v>319</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E120">
         <v>10</v>
@@ -7699,7 +7705,7 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -7725,16 +7731,16 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E121">
         <v>10</v>
@@ -7746,7 +7752,7 @@
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -7761,7 +7767,7 @@
         <v>37</v>
       </c>
       <c r="M121" t="s">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="N121" t="s">
         <v>37</v>
@@ -7772,16 +7778,16 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B122" t="s">
-        <v>325</v>
+        <v>300</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -7790,10 +7796,10 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -7808,7 +7814,7 @@
         <v>37</v>
       </c>
       <c r="M122" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="N122" t="s">
         <v>37</v>
@@ -7818,17 +7824,17 @@
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>327</v>
+      <c r="A123" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="E123">
         <v>10</v>
@@ -7840,7 +7846,7 @@
         <v>57</v>
       </c>
       <c r="H123" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -7865,53 +7871,103 @@
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>360</v>
+      <c r="A124" t="s">
+        <v>326</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124" t="s">
+        <v>328</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" t="s">
+        <v>37</v>
+      </c>
+      <c r="L124" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124" t="s">
+        <v>37</v>
+      </c>
+      <c r="N124" t="s">
+        <v>37</v>
+      </c>
+      <c r="O124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
         <v>186</v>
       </c>
-      <c r="E124">
-        <v>10</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
         <v>15</v>
       </c>
-      <c r="I124" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" t="s">
-        <v>37</v>
-      </c>
-      <c r="K124" t="s">
-        <v>37</v>
-      </c>
-      <c r="L124" t="s">
-        <v>37</v>
-      </c>
-      <c r="M124" t="s">
-        <v>37</v>
-      </c>
-      <c r="N124" t="s">
-        <v>37</v>
-      </c>
-      <c r="O124" t="s">
+      <c r="H125" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125" t="s">
+        <v>37</v>
+      </c>
+      <c r="L125" t="s">
+        <v>37</v>
+      </c>
+      <c r="M125" t="s">
+        <v>37</v>
+      </c>
+      <c r="N125" t="s">
+        <v>37</v>
+      </c>
+      <c r="O125" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K124" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K104">
-      <sortCondition ref="A1:A104"/>
+  <autoFilter ref="A1:K125" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K105">
+      <sortCondition ref="A1:A105"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joematthews/Desktop/PreReg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960C115-F77D-AB49-88C6-07DF664F52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A37D60-7F14-A84B-B598-4F09516F9B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working App back end " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="382">
   <si>
     <t>Code</t>
   </si>
@@ -1181,6 +1181,9 @@
   </si>
   <si>
     <t>F3F5;F3FM;F344;F345</t>
+  </si>
+  <si>
+    <t>GL11;NG41</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2069,10 @@
   <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3355,7 +3358,7 @@
         <v>82</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -4218,10 +4221,10 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
         <v>23</v>
@@ -5464,10 +5467,10 @@
         <v>37</v>
       </c>
       <c r="M72" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="N72" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="O72" t="s">
         <v>203</v>

--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joematthews/Desktop/PreReg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A37D60-7F14-A84B-B598-4F09516F9B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE84215-7315-C147-9DC4-28F5FDFFAB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working App back end " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="379">
   <si>
     <t>Code</t>
   </si>
@@ -1099,24 +1099,6 @@
     <t>G1N3;ACC2</t>
   </si>
   <si>
-    <t>PJH;MWFSP;MWBJP</t>
-  </si>
-  <si>
-    <t>PJH;P2JH;MWFSP;MWFSB;MWBJP;MWBPA;MWBPS</t>
-  </si>
-  <si>
-    <t>AJH;A2JH;MWFSA;MWFSB;MWBJA;MWBPA;MWBAS</t>
-  </si>
-  <si>
-    <t>AJH;MWFSA;MWBJA</t>
-  </si>
-  <si>
-    <t>SJH;S2JH;G1N3;MWBJS;MWBPS;MWBAS</t>
-  </si>
-  <si>
-    <t>SJH;MWBJS</t>
-  </si>
-  <si>
     <t>CEG3707</t>
   </si>
   <si>
@@ -1159,9 +1141,6 @@
     <t>F344;F345</t>
   </si>
   <si>
-    <t>PJH;P2JH;MWFSP;MWFSB;MWPJP;MWBPA;MWBPS;MWBJP</t>
-  </si>
-  <si>
     <t>F303;MPWA1</t>
   </si>
   <si>
@@ -1184,6 +1163,18 @@
   </si>
   <si>
     <t>GL11;NG41</t>
+  </si>
+  <si>
+    <t>AJH;A2JH;MWFSB;MWBPA;MWBAS</t>
+  </si>
+  <si>
+    <t>AJH;A2JH;MWFSB;;MWBPA;MWBAS</t>
+  </si>
+  <si>
+    <t>SJH;S2JH;G1N3;MWBPS;MWBAS</t>
+  </si>
+  <si>
+    <t>PJH;P2JH;MWFSB;MWBPA;MWBPS</t>
   </si>
 </sst>
 </file>
@@ -2069,10 +2060,10 @@
   <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2127,7 @@
         <v>349</v>
       </c>
       <c r="O1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -2209,7 +2200,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -2256,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -2303,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -2350,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -2397,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -2444,7 +2435,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -2491,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2538,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2585,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -2632,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -2679,7 +2670,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -3358,7 +3349,7 @@
         <v>82</v>
       </c>
       <c r="O27" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -3572,7 +3563,7 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -3854,7 +3845,7 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -3948,7 +3939,7 @@
         <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -4439,7 +4430,7 @@
         <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -4486,7 +4477,7 @@
         <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -4533,7 +4524,7 @@
         <v>37</v>
       </c>
       <c r="O52" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -4580,7 +4571,7 @@
         <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -4768,7 +4759,7 @@
         <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4815,7 +4806,7 @@
         <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -4862,7 +4853,7 @@
         <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5003,7 +4994,7 @@
         <v>177</v>
       </c>
       <c r="O62" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5050,7 +5041,7 @@
         <v>180</v>
       </c>
       <c r="O63" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5097,7 +5088,7 @@
         <v>183</v>
       </c>
       <c r="O64" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -5434,7 +5425,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5528,7 +5519,7 @@
         <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5943,7 +5934,7 @@
         <v>37</v>
       </c>
       <c r="O82" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -5951,7 +5942,7 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5969,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -6016,7 +6007,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -6110,7 +6101,7 @@
         <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -6131,7 +6122,7 @@
         <v>37</v>
       </c>
       <c r="O86" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -6298,7 +6289,7 @@
         <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -6554,7 +6545,7 @@
         <v>37</v>
       </c>
       <c r="O95" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -6580,7 +6571,7 @@
         <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -6674,7 +6665,7 @@
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -6789,7 +6780,7 @@
         <v>37</v>
       </c>
       <c r="O100" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -6844,7 +6835,7 @@
         <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -7922,10 +7913,10 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C125">
         <v>3</v>
